--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>password</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>DiSano Extra Light Olive Oil, Ideal for Indian Cooking, 5L</t>
-  </si>
-  <si>
-    <t>Vinodhan@1993</t>
   </si>
   <si>
     <t>English - EN</t>
@@ -369,7 +366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,7 +377,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,14 +411,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8220300781</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>560037</v>
@@ -434,9 +426,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>password</t>
   </si>
@@ -45,7 +45,22 @@
     <t>DiSano Extra Light Olive Oil, Ideal for Indian Cooking, 5L</t>
   </si>
   <si>
+    <t>Vinodhan@1993</t>
+  </si>
+  <si>
     <t>English - EN</t>
+  </si>
+  <si>
+    <t>Purchase an item based on user's choice</t>
+  </si>
+  <si>
+    <t>Purchase Product</t>
+  </si>
+  <si>
+    <t>TestDescription</t>
+  </si>
+  <si>
+    <t>TestTitle</t>
   </si>
 </sst>
 </file>
@@ -374,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +405,7 @@
     <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -409,11 +424,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8220300781</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>560037</v>
@@ -424,8 +450,17 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>password</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>DiSano Extra Light Olive Oil, Ideal for Indian Cooking, 5L</t>
-  </si>
-  <si>
-    <t>Vinodhan@1993</t>
   </si>
   <si>
     <t>English - EN</t>
@@ -381,7 +378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,7 +389,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,21 +422,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8220300781</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>560037</v>
@@ -451,16 +443,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>